--- a/teacher_timetables/Naoko YOSHINO_CampB_timetable.xlsx
+++ b/teacher_timetables/Naoko YOSHINO_CampB_timetable.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Full Timetable" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Full Timetable" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/teacher_timetables/Naoko YOSHINO_CampB_timetable.xlsx
+++ b/teacher_timetables/Naoko YOSHINO_CampB_timetable.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Full Timetable" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Full Timetable" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -512,8 +512,8 @@
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>Harp Regulation
-(Room UG24)</t>
+          <t>Harp Regulation Workshop
+(Room 204)</t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr">

--- a/teacher_timetables/Naoko YOSHINO_CampB_timetable.xlsx
+++ b/teacher_timetables/Naoko YOSHINO_CampB_timetable.xlsx
@@ -512,8 +512,7 @@
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>Harp Regulation Workshop
-(Room 204)</t>
+          <t>Liya HUANG</t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr">
@@ -592,7 +591,7 @@
       </c>
       <c r="F7" s="1" t="inlineStr">
         <is>
-          <t>Harp MasterClass by Naoko Yoshino
+          <t>Harp MasterClass by Naoko YOSHINO
 Phyllis LUK, Amanda HUNG</t>
         </is>
       </c>
@@ -669,7 +668,7 @@
       </c>
       <c r="F11" s="1" t="inlineStr">
         <is>
-          <t>Harp MasterClass by Naoko Yoshino
+          <t>Harp MasterClass by Naoko YOSHINO
 Nicole LAU, Monique NG</t>
         </is>
       </c>

--- a/teacher_timetables/Naoko YOSHINO_CampB_timetable.xlsx
+++ b/teacher_timetables/Naoko YOSHINO_CampB_timetable.xlsx
@@ -512,7 +512,8 @@
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>Liya HUANG</t>
+          <t>Harp Regulation Workshop
+(Room 204)</t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr">
@@ -1183,7 +1184,7 @@
       <c r="D40" s="1" t="n"/>
       <c r="E40" s="1" t="n"/>
       <c r="F40" s="1" t="n"/>
-      <c r="G40" s="1" t="inlineStr"/>
+      <c r="G40" s="1" t="n"/>
     </row>
     <row r="41" ht="15" customHeight="1">
       <c r="A41" s="1" t="inlineStr">
@@ -1209,7 +1210,11 @@
       <c r="D42" s="1" t="n"/>
       <c r="E42" s="1" t="n"/>
       <c r="F42" s="1" t="n"/>
-      <c r="G42" s="1" t="n"/>
+      <c r="G42" s="1" t="inlineStr">
+        <is>
+          <t>After concert refreshment</t>
+        </is>
+      </c>
     </row>
     <row r="43" ht="15" customHeight="1">
       <c r="A43" s="1" t="inlineStr">
@@ -1237,7 +1242,7 @@
       <c r="F44" s="1" t="n"/>
       <c r="G44" s="1" t="n"/>
     </row>
-    <row r="45" ht="15" customHeight="1">
+    <row r="45" ht="30" customHeight="1">
       <c r="A45" s="1" t="inlineStr">
         <is>
           <t>20:30</t>
@@ -1248,7 +1253,12 @@
       <c r="D45" s="1" t="n"/>
       <c r="E45" s="1" t="n"/>
       <c r="F45" s="1" t="n"/>
-      <c r="G45" s="1" t="n"/>
+      <c r="G45" s="1" t="inlineStr">
+        <is>
+          <t>After Concert Dinner 
+(Pheasant-Jasmine Room, Mandarin Oriental)</t>
+        </is>
+      </c>
     </row>
     <row r="46" ht="15" customHeight="1">
       <c r="A46" s="1" t="inlineStr">
@@ -1316,7 +1326,7 @@
       <c r="G50" s="1" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="54">
+  <mergeCells count="55">
     <mergeCell ref="C39:C50"/>
     <mergeCell ref="G30:G32"/>
     <mergeCell ref="E15:E19"/>
@@ -1349,6 +1359,7 @@
     <mergeCell ref="E39:E50"/>
     <mergeCell ref="D3:D6"/>
     <mergeCell ref="G15:G20"/>
+    <mergeCell ref="G42:G44"/>
     <mergeCell ref="C11:C14"/>
     <mergeCell ref="C7:C10"/>
     <mergeCell ref="E11:E14"/>
@@ -1357,11 +1368,10 @@
     <mergeCell ref="F15:F19"/>
     <mergeCell ref="B33:B38"/>
     <mergeCell ref="D24:D27"/>
-    <mergeCell ref="G40:G50"/>
     <mergeCell ref="D33:D38"/>
     <mergeCell ref="B39:B50"/>
     <mergeCell ref="C28:C31"/>
-    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="G45:G50"/>
     <mergeCell ref="F28:F31"/>
     <mergeCell ref="B20:B23"/>
     <mergeCell ref="C3:C6"/>
@@ -1369,6 +1379,7 @@
     <mergeCell ref="E3:E6"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G37:G41"/>
     <mergeCell ref="C24:C27"/>
     <mergeCell ref="E24:E27"/>
   </mergeCells>
